--- a/grupos/4BLCM - Estadisticos 20202.xlsx
+++ b/grupos/4BLCM - Estadisticos 20202.xlsx
@@ -1044,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S4">
         <v>10</v>
@@ -1133,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S5">
         <v>10</v>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -1400,7 +1400,7 @@
         <v>10</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S8">
         <v>10</v>
@@ -1421,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -1667,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S11">
         <v>10</v>
@@ -1756,7 +1756,7 @@
         <v>8</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S12">
         <v>7</v>
@@ -1845,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>10</v>
@@ -1866,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="Y13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z13">
         <v>7</v>
@@ -1934,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S14">
         <v>10</v>
@@ -2023,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S15">
         <v>10</v>
@@ -2112,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S16">
         <v>10</v>
@@ -2201,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -2290,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <v>7</v>
@@ -2468,7 +2468,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S20">
         <v>10</v>
@@ -2557,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S21">
         <v>10</v>
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S22">
         <v>10</v>
@@ -2735,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S23">
         <v>10</v>
@@ -2824,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S24">
         <v>6</v>
@@ -2913,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S25">
         <v>8</v>
@@ -3002,7 +3002,7 @@
         <v>7</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <v>10</v>
@@ -3091,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         <v>10</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S28">
         <v>10</v>
@@ -3269,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S29">
         <v>10</v>
@@ -3358,7 +3358,7 @@
         <v>10</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S30">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         <v>7</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S31">
         <v>6</v>
@@ -3468,7 +3468,7 @@
         <v>6</v>
       </c>
       <c r="Y31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z31">
         <v>7</v>
@@ -3536,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S32">
         <v>10</v>
@@ -3625,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S33">
         <v>10</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S34">
         <v>8</v>
@@ -3803,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S35">
         <v>10</v>
@@ -3892,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S36">
         <v>10</v>
@@ -3981,7 +3981,7 @@
         <v>10</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S37">
         <v>10</v>
@@ -4070,7 +4070,7 @@
         <v>10</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S38">
         <v>10</v>
@@ -4091,7 +4091,7 @@
         <v>10</v>
       </c>
       <c r="Y38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z38">
         <v>10</v>
@@ -4159,7 +4159,7 @@
         <v>10</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S39">
         <v>10</v>

--- a/grupos/4BLCM - Estadisticos 20202.xlsx
+++ b/grupos/4BLCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -194,19 +194,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>Ángel Martínez Noe Cristobal</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
     <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Noe Cristobal</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Elio</t>
   </si>
   <si>
     <t>NC</t>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -4260,16 +4260,16 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>77.78</v>
+        <v>86.11</v>
       </c>
       <c r="G2">
-        <v>22.22</v>
+        <v>13.89</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -4292,19 +4292,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>83.33</v>
+        <v>86.11</v>
       </c>
       <c r="G3">
-        <v>16.67</v>
+        <v>13.89</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4315,28 +4315,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="G4">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -4356,19 +4356,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>88.89</v>
+        <v>91.67</v>
       </c>
       <c r="G5">
-        <v>11.11</v>
+        <v>8.33</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4382,25 +4382,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>36</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>88.89</v>
+        <v>91.67</v>
       </c>
       <c r="G6">
-        <v>5.56</v>
+        <v>8.33</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -4420,19 +4420,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5163,7 +5163,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5193,24 +5193,24 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920201</v>
+        <v>19330051920195</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -5221,22 +5221,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920202</v>
+        <v>19330051920195</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5244,25 +5244,94 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920214</v>
+        <v>19330051920217</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
